--- a/Luban/Config/Datas/Unit/Hero.xlsx
+++ b/Luban/Config/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20715" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -69,16 +69,13 @@
     <t>Yase</t>
   </si>
   <si>
-    <t>10110</t>
+    <t>10100</t>
   </si>
   <si>
     <t>后裔</t>
   </si>
   <si>
     <t>Houyi</t>
-  </si>
-  <si>
-    <t>10100</t>
   </si>
 </sst>
 </file>
@@ -86,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +97,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -108,22 +113,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +157,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -152,6 +203,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -161,84 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +262,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,7 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,37 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,121 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,21 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,26 +467,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,16 +505,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,7 +1079,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1171,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3">
         <v>100</v>
@@ -1192,10 +1189,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>

--- a/Luban/Config/Datas/Unit/Hero.xlsx
+++ b/Luban/Config/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20715" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -69,13 +69,16 @@
     <t>Yase</t>
   </si>
   <si>
-    <t>10100</t>
+    <t>100102</t>
   </si>
   <si>
     <t>后裔</t>
   </si>
   <si>
     <t>Houyi</t>
+  </si>
+  <si>
+    <t>100101</t>
   </si>
 </sst>
 </file>
@@ -83,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +97,97 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,8 +199,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,128 +239,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,19 +265,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,163 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,30 +464,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +494,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
         <v>100</v>

--- a/Luban/Config/Datas/Unit/Hero.xlsx
+++ b/Luban/Config/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>UnitID</t>
   </si>
   <si>
     <t>Name</t>
@@ -86,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,6 +100,89 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,89 +195,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -199,46 +202,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,25 +268,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,31 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,121 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +459,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,20 +527,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,9 +551,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,19 +1082,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="10.4166666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.2333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.4166666666667" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.2333333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,13 +1107,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1119,13 +1122,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1133,124 +1139,133 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>15</v>
+      </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="2:9">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="2:10">
       <c r="B4" s="3">
         <v>1001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+      <c r="C4" s="3">
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3">
-        <v>100</v>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="H4" s="3">
         <v>100</v>
       </c>
       <c r="I4" s="3">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="2:9">
+    <row r="5" s="3" customFormat="1" spans="2:10">
       <c r="B5" s="3">
         <v>1002</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
+      <c r="C5" s="3">
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
-        <v>100</v>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
       </c>
       <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="5:6">
-      <c r="E6" s="7"/>
+    <row r="6" s="3" customFormat="1" spans="6:7">
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="5:6">
-      <c r="E7" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="6:7">
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="5:6">
-      <c r="E8" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="6:7">
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="5:6">
-      <c r="E9" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="6:7">
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="5:6">
-      <c r="E10" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="6:7">
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="5:6">
-      <c r="E11" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="6:7">
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="5:6">
-      <c r="E12" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="6:7">
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="5:6">
-      <c r="E13" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="6:7">
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="5:6">
-      <c r="E14" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="6:7">
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="5:6">
-      <c r="E15" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="6:7">
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="5:6">
-      <c r="E16" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="6:7">
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="5:6">
-      <c r="E17" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="6:7">
       <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/Unit/Hero.xlsx
+++ b/Luban/Config/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22665" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Yase</t>
   </si>
   <si>
+    <t>100101</t>
+  </si>
+  <si>
     <t>100102</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>Houyi</t>
-  </si>
-  <si>
-    <t>100101</t>
   </si>
 </sst>
 </file>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,25 +104,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,24 +194,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,37 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -204,6 +219,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -211,37 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +268,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,127 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,30 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,9 +479,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +506,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,11 +553,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1178,9 +1178,11 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3">
         <v>100</v>
@@ -1200,14 +1202,14 @@
         <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
@@ -1280,7 +1282,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1297,7 +1299,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Luban/Config/Datas/Unit/Hero.xlsx
+++ b/Luban/Config/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22665" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>list,int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>##</t>
@@ -89,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,19 +107,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -125,54 +142,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +173,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -227,6 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,8 +228,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,37 +271,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,145 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +551,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1155,12 +1158,12 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1173,16 +1176,16 @@
         <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3">
         <v>100</v>
@@ -1202,15 +1205,13 @@
         <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" s="7"/>
       <c r="H5" s="3">
         <v>100</v>
       </c>

--- a/Luban/Config/Datas/Unit/Hero.xlsx
+++ b/Luban/Config/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="22365" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>ActiveSkill</t>
   </si>
   <si>
-    <t>PassiveSkill</t>
+    <t>PassiveBuff</t>
   </si>
   <si>
     <t>Hp</t>
@@ -75,7 +75,7 @@
     <t>Yase</t>
   </si>
   <si>
-    <t>100101</t>
+    <t>100101,100103</t>
   </si>
   <si>
     <t>100102</t>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
